--- a/results.xlsx
+++ b/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Features</t>
   </si>
@@ -62,6 +62,26 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Training as classification with threshold for “relevant” output</t>
+    </r>
+  </si>
+  <si>
+    <t>TfIdf on 
+‘product title’ + ’desctiption’ + ’attributes’
+‘search term’
+Stemming</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Random Forest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">100 Trees</t>
     </r>
   </si>
 </sst>
@@ -151,7 +171,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -182,6 +202,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -201,10 +225,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C5:F7"/>
+  <dimension ref="C1:F8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -217,6 +241,30 @@
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+    </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -253,6 +301,17 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="n">
         <v>0.56231</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="60.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.54534</v>
       </c>
     </row>
   </sheetData>
